--- a/cat-zson/src/main/resources/excel/zb.装备.xlsx
+++ b/cat-zson/src/main/resources/excel/zb.装备.xlsx
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
   <si>
     <t>key</t>
   </si>
@@ -143,19 +143,19 @@
     <t>quality</t>
   </si>
   <si>
-    <t>holderType</t>
-  </si>
-  <si>
     <t>attribute</t>
   </si>
   <si>
-    <t>hiddenAttrs</t>
+    <t>starHiddenAttrs</t>
+  </si>
+  <si>
+    <t>holeHiddenAttrs</t>
   </si>
   <si>
     <t>hiddenSkill</t>
   </si>
   <si>
-    <t>slot</t>
+    <t>category</t>
   </si>
   <si>
     <t>type</t>
@@ -200,16 +200,19 @@
     <t>品质</t>
   </si>
   <si>
-    <t>持有者类型</t>
-  </si>
-  <si>
     <t>初始属性</t>
   </si>
   <si>
+    <t>加工隐藏属性</t>
+  </si>
+  <si>
+    <t>打孔隐藏属性</t>
+  </si>
+  <si>
     <t>隐藏技能</t>
   </si>
   <si>
-    <t>槽位</t>
+    <t>类别</t>
   </si>
   <si>
     <t>remark</t>
@@ -231,17 +234,23 @@
 7:紫</t>
   </si>
   <si>
-    <t>1:英雄
-2:宠物</t>
-  </si>
-  <si>
-    <t>装备槽位
-0:武器
-1:衣服
-2:帽子
-3:项链
-4:鞋子
-5:面具</t>
+    <t xml:space="preserve">[1级加工隐藏,2级隐藏,3级隐藏]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1级打孔属性,2级隐藏,3级隐藏]
+</t>
+  </si>
+  <si>
+    <t>对应槽位
+1:武器
+2:衣服
+3:帽子
+4:项链
+5:鞋子
+6:面具
+7:戒指
+8:背包</t>
   </si>
   <si>
     <t>true</t>
@@ -253,6 +262,9 @@
     <t>不知名的木芯，易脆的，易燃的</t>
   </si>
   <si>
+    <t>[{103:30},{103:40},{103:50}]</t>
+  </si>
+  <si>
     <t>檀木杖</t>
   </si>
   <si>
@@ -433,100 +445,10 @@
     <t>巫师面具</t>
   </si>
   <si>
-    <t>火印冠</t>
-  </si>
-  <si>
-    <t>宠物头部</t>
-  </si>
-  <si>
-    <t>攻套</t>
-  </si>
-  <si>
-    <t>{101:10,104:10}</t>
-  </si>
-  <si>
-    <t>9,10,11,12</t>
-  </si>
-  <si>
-    <t>雷语冠</t>
-  </si>
-  <si>
-    <t>血套</t>
-  </si>
-  <si>
-    <t>{102:10}</t>
-  </si>
-  <si>
-    <t>白玉冠</t>
-  </si>
-  <si>
-    <t>爆套</t>
-  </si>
-  <si>
-    <t>{103:10,107:10}</t>
-  </si>
-  <si>
-    <t>神宇冠</t>
-  </si>
-  <si>
-    <t>盾套</t>
-  </si>
-  <si>
-    <t>{105:10,106:10}</t>
-  </si>
-  <si>
-    <t>悟韵服</t>
-  </si>
-  <si>
-    <t>宠物身体</t>
-  </si>
-  <si>
-    <t>17,18,21,22</t>
-  </si>
-  <si>
-    <t>潜行服</t>
-  </si>
-  <si>
-    <t>神魂服</t>
-  </si>
-  <si>
-    <t>火焰服</t>
-  </si>
-  <si>
-    <t>火行之歌</t>
-  </si>
-  <si>
-    <t>宠物饰品</t>
-  </si>
-  <si>
-    <t>13,14,15,16</t>
-  </si>
-  <si>
-    <t>精灵之歌</t>
-  </si>
-  <si>
-    <t>祝福之歌</t>
-  </si>
-  <si>
-    <t>祈祷之歌</t>
-  </si>
-  <si>
-    <t>踏山链</t>
-  </si>
-  <si>
-    <t>宠物颈部</t>
-  </si>
-  <si>
-    <t>19,20,23,24</t>
-  </si>
-  <si>
-    <t>灵云链</t>
-  </si>
-  <si>
-    <t>悟行链</t>
-  </si>
-  <si>
-    <t>破命链</t>
+    <t>巫师法戒</t>
+  </si>
+  <si>
+    <t>巫师包</t>
   </si>
 </sst>
 </file>
@@ -534,10 +456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -567,8 +489,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,7 +542,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -607,30 +582,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,13 +598,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -660,16 +605,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,28 +626,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -714,14 +642,8 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,7 +658,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,31 +718,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,145 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,17 +882,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,8 +896,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,6 +917,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1016,26 +943,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,6 +970,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1071,10 +987,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,140 +999,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1227,12 +1143,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,10 +1494,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="L40" sqref="A40:L55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1595,13 +1505,14 @@
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="24.625" customWidth="1"/>
     <col min="4" max="4" width="33.75" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:12">
@@ -1665,13 +1576,13 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
@@ -1703,7 +1614,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -1750,50 +1661,52 @@
         <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" ht="120" customHeight="1" spans="1:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="148.5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3">
-        <v>300001</v>
+        <v>310001</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
@@ -1802,28 +1715,30 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="16.5" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3">
-        <v>300003</v>
+        <v>310002</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
@@ -1832,28 +1747,26 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="16.5" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3">
-        <v>300004</v>
+        <v>310003</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
@@ -1862,28 +1775,26 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3">
-        <v>300005</v>
+        <v>310004</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
@@ -1892,28 +1803,26 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="16.5" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3">
-        <v>300006</v>
+        <v>310005</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
@@ -1922,28 +1831,26 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="16.5" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3">
-        <v>300007</v>
+        <v>310006</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -1952,28 +1859,26 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="16.5" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3">
-        <v>300008</v>
+        <v>310007</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
@@ -1982,28 +1887,26 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3">
-        <v>300009</v>
+        <v>310008</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
@@ -2012,28 +1915,26 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3">
-        <v>300010</v>
+        <v>310009</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
@@ -2042,28 +1943,26 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3">
-        <v>300011</v>
+        <v>310010</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
@@ -2072,28 +1971,26 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3">
-        <v>300012</v>
+        <v>310011</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3">
@@ -2102,28 +1999,26 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3">
-        <v>300013</v>
+        <v>310012</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
@@ -2132,28 +2027,26 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3">
-        <v>300014</v>
+        <v>310013</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
@@ -2162,28 +2055,26 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3">
-        <v>300015</v>
+        <v>310014</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
@@ -2192,28 +2083,26 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3">
-        <v>300016</v>
+        <v>310015</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
@@ -2222,28 +2111,26 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3">
-        <v>300017</v>
+        <v>310016</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
@@ -2252,28 +2139,26 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3">
-        <v>300018</v>
+        <v>310017</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
@@ -2282,28 +2167,26 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3">
-        <v>300019</v>
+        <v>310018</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3">
@@ -2312,28 +2195,26 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3">
-        <v>300020</v>
+        <v>310019</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3">
@@ -2342,28 +2223,26 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3">
-        <v>300021</v>
+        <v>310020</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3">
@@ -2372,28 +2251,26 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3">
-        <v>300022</v>
+        <v>310021</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3">
@@ -2402,28 +2279,26 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3">
-        <v>300023</v>
+        <v>310022</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3">
@@ -2432,28 +2307,26 @@
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3">
-        <v>300024</v>
+        <v>310023</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3">
@@ -2462,28 +2335,26 @@
       <c r="G28" s="3">
         <v>0</v>
       </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" s="3">
-        <v>300025</v>
+        <v>310024</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3">
@@ -2492,28 +2363,26 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3">
-        <v>300026</v>
+        <v>310025</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3">
@@ -2522,28 +2391,26 @@
       <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3">
-        <v>300027</v>
+        <v>310026</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
@@ -2552,28 +2419,26 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3">
-        <v>300028</v>
+        <v>310027</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3">
@@ -2582,28 +2447,26 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3">
-        <v>300029</v>
+        <v>310028</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
@@ -2612,28 +2475,26 @@
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>300030</v>
+        <v>310029</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3">
@@ -2642,700 +2503,194 @@
       <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
+      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" s="3">
-        <v>301001</v>
+        <v>320001</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" s="3">
-        <v>302001</v>
+        <v>330001</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="3">
-        <v>303001</v>
+        <v>340001</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3">
-        <v>304001</v>
+        <v>350001</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>305001</v>
+        <v>360001</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:12">
-      <c r="A40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="5">
-        <v>309001</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-      <c r="H40" s="5">
-        <v>2</v>
-      </c>
-      <c r="I40" s="3" t="s">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>370001</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="3"/>
+      <c r="L40" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:12">
+      <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>380001</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" spans="1:12">
-      <c r="A41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="5">
-        <v>309002</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5">
-        <v>2</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="K41" s="3"/>
       <c r="L41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" spans="1:12">
-      <c r="A42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="5">
-        <v>309003</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="5">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <v>2</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" spans="1:12">
-      <c r="A43" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="5">
-        <v>309004</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5">
-        <v>2</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" spans="1:12">
-      <c r="A44" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="5">
-        <v>309005</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5">
-        <v>2</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" spans="1:12">
-      <c r="A45" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="5">
-        <v>309006</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5">
-        <v>2</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" spans="1:12">
-      <c r="A46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="5">
-        <v>309007</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="5">
-        <v>2</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" spans="1:12">
-      <c r="A47" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="5">
-        <v>309008</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>2</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" spans="1:12">
-      <c r="A48" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="5">
-        <v>309009</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="5">
-        <v>1</v>
-      </c>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <v>2</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" spans="1:12">
-      <c r="A49" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="5">
-        <v>309010</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="5">
-        <v>1</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>2</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" spans="1:12">
-      <c r="A50" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="5">
-        <v>309011</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="5">
-        <v>1</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5">
-        <v>2</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" spans="1:12">
-      <c r="A51" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="5">
-        <v>309012</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F51" s="5">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
-      <c r="H51" s="5">
-        <v>2</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5" spans="1:12">
-      <c r="A52" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="5">
-        <v>309013</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" s="5">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5">
-        <v>2</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5" spans="1:12">
-      <c r="A53" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="5">
-        <v>309014</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="5">
-        <v>1</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>2</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="16.5" spans="1:12">
-      <c r="A54" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="5">
-        <v>309015</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" s="5">
-        <v>1</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5">
-        <v>2</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5" spans="1:12">
-      <c r="A55" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="5">
-        <v>309016</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55" s="5">
-        <v>1</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5">
-        <v>2</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L55" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
